--- a/数据整理/stocks/A股/上证主板/600038-中直股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600038-中直股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006132</t>
+          <t>001838</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>万家智造优势混合A</t>
+          <t>国投瑞银国家安全灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>36.52</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.5132</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006133</t>
+          <t>005094</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>万家智造优势混合C</t>
+          <t>万家臻选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>55.87</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>64.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2348</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006511</t>
+          <t>004224</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博道卓远混合A</t>
+          <t>南方军工改革灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>85.50</t>
+          <t>18.61</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9789</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006512</t>
+          <t>002983</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>博道卓远混合C</t>
+          <t>长信国防军工量化灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>85.50</t>
+          <t>10.63</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7590</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>3</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008547</t>
+          <t>008960</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>博道安远6个月定期开放混合</t>
+          <t>长信国防军工量化灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>21.60</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2121</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -632,25 +692,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007825</t>
+          <t>006511</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>博道志远混合A</t>
+          <t>博道卓远混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>83.72</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1680</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>3</v>
       </c>
     </row>
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007826</t>
+          <t>007074</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>博道志远混合C</t>
+          <t>国寿安保新蓝筹灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>83.72</t>
+          <t>5.36</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>3</v>
+          <t>52.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1115</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001050</t>
+          <t>007825</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>汇添富成长多因子量化策略股票</t>
+          <t>博道志远混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>91.70</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>83.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006700</t>
+          <t>001050</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>红土创新稳健混合A</t>
+          <t>汇添富成长多因子量化策略股票</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>39.60</t>
+          <t>6.98</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -744,25 +844,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006701</t>
+          <t>006700</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>红土创新稳健混合C</t>
+          <t>红土创新稳健混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>39.60</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>2.94</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>6</v>
       </c>
     </row>
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001751</t>
+          <t>011148</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华商信用增强债券A</t>
+          <t>南方军工改革灵活配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>20.42</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001752</t>
+          <t>007826</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华商信用增强债券C</t>
+          <t>博道志远混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>20.42</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>8</v>
+          <t>83.72</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>001838</t>
+          <t>008128</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>国投瑞银国家安全灵活配置混合</t>
+          <t>湘财长源股票A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>94.61</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>9.62</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>3</v>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -856,26 +996,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>008128</t>
+          <t>006132</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>湘财长源股票A</t>
+          <t>万家智造优势混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>93.99</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>10</v>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -894,15 +1044,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>93.99</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1.86</t>
         </is>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>10</v>
       </c>
     </row>
@@ -912,26 +1072,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>005094</t>
+          <t>008547</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>万家臻选混合</t>
+          <t>博道安远6个月定期开放混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>64.83</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>9</v>
+          <t>21.60</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -940,26 +1110,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>002983</t>
+          <t>003092</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>长信国防军工量化灵活配置混合A</t>
+          <t>华商丰利增强定期开放债券A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>94.19</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>7.14</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>3</v>
+          <t>20.37</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -968,26 +1148,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>004224</t>
+          <t>006701</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>南方军工改革灵活配置混合A</t>
+          <t>红土创新稳健混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>92.45</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5.26</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>9</v>
+          <t>39.60</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -996,26 +1186,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>007074</t>
+          <t>006512</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>国寿安保新蓝筹灵活配置混合</t>
+          <t>博道卓远混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>52.18</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>10</v>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -1024,26 +1224,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>008960</t>
+          <t>003093</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>长信国防军工量化灵活配置混合C</t>
+          <t>华商丰利增强定期开放债券C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>94.19</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>7.14</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>3</v>
+          <t>20.37</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -1052,25 +1262,35 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>011148</t>
+          <t>006133</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>南方军工改革灵活配置混合C</t>
+          <t>万家智造优势混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>92.45</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>5.26</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1080,25 +1300,35 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>003092</t>
+          <t>001751</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>华商丰利增强定期开放债券A</t>
+          <t>华商信用增强债券A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>20.37</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1108,25 +1338,35 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>003093</t>
+          <t>001752</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>华商丰利增强定期开放债券C</t>
+          <t>华商信用增强债券C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>20.37</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1141,7 +1381,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1162,15 +1402,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004224</t>
+          <t>001838</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方军工改革灵活配置混合A</t>
+          <t>国投瑞银国家安全灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.94</t>
+          <t>66.89</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.60</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.8428</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011148</t>
+          <t>005094</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南方军工改革灵活配置混合C</t>
+          <t>万家臻选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.94</t>
+          <t>26.29</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.60</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9902</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001050</t>
+          <t>004224</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇添富成长多因子量化策略股票</t>
+          <t>南方军工改革灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>90.64</t>
+          <t>27.46</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5378</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001838</t>
+          <t>002983</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国投瑞银国家安全灵活配置混合</t>
+          <t>长信国防军工量化灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.61</t>
+          <t>8.91</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>10.23</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6121</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>519756</t>
+          <t>008960</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>交银施罗德国企改革灵活配置混合</t>
+          <t>长信国防军工量化灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>76.73</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2040</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005094</t>
+          <t>519756</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>万家臻选混合</t>
+          <t>交银施罗德国企改革灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.41</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7.57</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
+          <t>76.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0860</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002983</t>
+          <t>001050</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>长信国防军工量化灵活配置混合A</t>
+          <t>汇添富成长多因子量化策略股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.12</t>
+          <t>6.19</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>6.87</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>3</v>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0749</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>008960</t>
+          <t>011148</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>长信国防军工量化灵活配置混合C</t>
+          <t>南方军工改革灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>93.12</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>6.87</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>3</v>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600038-中直股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600038-中直股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1733,4 +1734,820 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001838</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银国家安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.0790</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005094</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家臻选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0757</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002983</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5722</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008960</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2308</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000978</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城量化精选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1543</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004139</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中邮军民融合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1396</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006682</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1139</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519756</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银施罗德国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0899</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0898</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001880</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002885</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008112</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008113</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010000</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006700</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>33.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006701</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>33.81</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600038-中直股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600038-中直股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2550,4 +2551,516 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001838</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银国家安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.9565</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519918</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏兴和混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9318</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005094</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家臻选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8363</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>050009</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7649</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519700</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银主题优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>70.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3952</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2000</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1588</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002885</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>673020</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>西部利得成长精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>67.31</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009317</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>金信核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.07</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001708</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东兴改革精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600038-中直股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600038-中直股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3063,4 +3064,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.68</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>23</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.390000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600038-中直股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600038-中直股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3072,7 +3073,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3083,17 +3084,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3103,14 +3124,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.4</v>
+          <t>001838</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银国家安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8871</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -3119,14 +3162,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>20</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11.68</v>
+          <t>519133</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>海富通改革驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>175.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1019</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -3135,14 +3200,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11.39</v>
+          <t>952009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>80.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5250</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -3151,13 +3238,2885 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>952099</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>69.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.1606</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519196</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家新兴蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3342</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519195</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家品质生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2026</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>050009</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>32.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1060</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>400032</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方主题精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>36.92</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0448</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011177</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时汇融回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>39.26</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>76.46</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0051</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005094</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家臻选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9334</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519181</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家和谐增长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14.65</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8790</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161912</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15.54</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8671</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008960</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7138</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012491</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华商核心引力混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>17.36</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6406</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006864</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国联安核心资产策略混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5540</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519003</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>海富通收益增长混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>32.50</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>78.14</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5135</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000654</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华商新锐产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.15</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4852</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000690</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源大海洋战略经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3602</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002983</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3471</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010790</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>14.97</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3099</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>162204</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泰达宏利行业精选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2967</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010861</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长信企业优选一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>12.04</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>59.14</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2890</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2573</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004423</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2192</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2130</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009317</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>金信核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1946</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006281</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>万家人工智能混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1912</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001047</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>光大保德信国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1898</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005589</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>63.94</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1765</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002885</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1468</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008961</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华商科技创新混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1410</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>501099</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>平安科技创新3年封闭运作灵活配置混合型</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1183</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006277</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中金瑞和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1182</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>519756</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>交银施罗德国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>81.65</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1123</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>240017</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华宝新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1094</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010791</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0963</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>257050</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国联安主题驱动混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>73.66</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0907</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001798</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0895</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011703</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中金鑫瑞优选一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>76.13</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0814</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011765</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005117</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>003582</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中金量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011458</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>东方鑫享价值成长一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005274</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中银景福回报混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>12.26</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>22.22</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002331</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>泰康安泰回报混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>21.66</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0628</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>161233</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>30.17</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>121010</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>51.03</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011459</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>东方鑫享价值成长一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008773</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中银景泰回报混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>33.74</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>161222</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>51.88</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>163823</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中银稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>50.48</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009078</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>30.68</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>007318</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中银民丰回报混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>24.99</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009077</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>30.68</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006952</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中银景元回报混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>37.63</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010951</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中金成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>84.05</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>161913</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001135</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>益民品质升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>012492</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华商核心引力混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>002288</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中银稳进策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001266</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>国投瑞银招财灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>63.45</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>003578</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>006278</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中金瑞和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011766</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>700004</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>平安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>519099</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>新华灵活主题混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>72.18</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001799</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011178</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>博时汇融回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>76.46</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>005118</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>005146</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>兴银丰润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>001708</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>东兴改革精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>003016</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010952</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>中金成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>84.05</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>004840</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>东兴品牌精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>82.36</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>006442</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>东兴品牌精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>82.36</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>76</v>
+      </c>
+      <c r="D2" t="n">
+        <v>28.33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.39</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>23</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>8.390000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600038-中直股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600038-中直股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6015,7 +6016,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6026,17 +6027,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6046,14 +6067,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>76</v>
-      </c>
-      <c r="D2" t="n">
-        <v>28.33</v>
+          <t>519196</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家新兴蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0056</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -6062,14 +6105,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.4</v>
+          <t>011177</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时汇融回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>39.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>65.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8480</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -6078,14 +6143,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>20</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11.68</v>
+          <t>519195</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家品质生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7629</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -6094,14 +6181,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>11.39</v>
+          <t>005094</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家臻选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>73.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7024</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -6110,13 +6219,813 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>519181</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家和谐增长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5571</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161912</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5505</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006864</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国联安核心资产策略混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3051</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>121006</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银稳健增长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>65.10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1615</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1566</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1388</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0919</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519198</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0835</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161233</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>24.66</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005117</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002885</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009317</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>金信核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>161913</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011178</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时汇融回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>65.35</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>162107</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>金鹰量化精选股票（LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005118</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010605</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>创金合信鑫祥混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>29.57</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010606</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>创金合信鑫祥混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>29.57</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>76</v>
+      </c>
+      <c r="D3" t="n">
+        <v>28.33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.68</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11.39</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>23</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>8.390000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600038-中直股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600038-中直股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6908,7 +6909,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6919,17 +6920,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6939,14 +6960,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.56</v>
+          <t>001838</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银国家安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3146</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -6955,14 +6998,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>76</v>
-      </c>
-      <c r="D3" t="n">
-        <v>28.33</v>
+          <t>000462</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>农银主题轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2724</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -6971,14 +7036,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.4</v>
+          <t>000039</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>农银高增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1521</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -6987,14 +7074,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>20</v>
-      </c>
-      <c r="D5" t="n">
-        <v>11.68</v>
+          <t>000259</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>农银区间收益混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>67.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -7003,14 +7112,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+          <t>161233</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>27.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>8</v>
-      </c>
-      <c r="D6" t="n">
-        <v>11.39</v>
       </c>
     </row>
     <row r="7">
@@ -7019,13 +7150,221 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>005638</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>农银汇理量化智慧动力混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011618</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>27.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>76</v>
+      </c>
+      <c r="D4" t="n">
+        <v>28.33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>20</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11.68</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>11.39</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>23</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>8.390000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600038-中直股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600038-中直股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>1.87</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>5.56</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="D4" t="n">
-        <v>28.33</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="D5" t="n">
-        <v>10.4</v>
+        <v>28.33</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>11.68</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
-        <v>11.39</v>
+        <v>11.68</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>11.39</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>23</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>8.390000000000001</v>
       </c>
     </row>
@@ -666,26 +683,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>32.22</t>
+          <t>27.40</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.32</t>
+          <t>94.42</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>7.84</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.3146</t>
+          <t>2.1482</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -694,36 +711,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000462</t>
+          <t>004139</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>农银主题轮动灵活配置混合</t>
+          <t>中邮军民融合灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.57</t>
+          <t>11.73</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.98</t>
+          <t>88.46</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2724</t>
+          <t>0.5560</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -732,36 +749,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000039</t>
+          <t>011001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>农银高增长混合</t>
+          <t>中邮兴荣价值一年持有期混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.27</t>
+          <t>40.76</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1521</t>
+          <t>0.1190</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -770,36 +787,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000259</t>
+          <t>014781</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>农银区间收益混合</t>
+          <t>建信兴衡优选一年持有期混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>67.87</t>
+          <t>46.74</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0576</t>
+          <t>0.0402</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -808,32 +825,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>161233</t>
+          <t>014782</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
+          <t>建信兴衡优选一年持有期混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.47</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>27.72</t>
+          <t>46.74</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0520</t>
+          <t>0.0159</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -846,36 +863,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005638</t>
+          <t>004840</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>农银汇理量化智慧动力混合</t>
+          <t>东兴品牌精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>86.53</t>
+          <t>89.84</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>5.28</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0141</t>
+          <t>0.0005</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -884,36 +901,34 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>011618</t>
+          <t>006442</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）C</t>
+          <t>东兴品牌精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>27.72</t>
+          <t>89.84</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0070</t>
-        </is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -922,6 +937,328 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001838</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银国家安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3146</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000462</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>农银主题轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2724</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000039</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>农银高增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1521</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000259</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>农银区间收益混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>67.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161233</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>27.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005638</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>农银汇理量化智慧动力混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011618</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>27.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1813,7 +2150,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4755,7 +5092,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5267,7 +5604,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6083,7 +6420,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6443,7 +6780,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600038-中直股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600038-中直股份.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="D2" t="n">
-        <v>2.88</v>
+        <v>8.92</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>1.87</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>5.56</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>28.33</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="D6" t="n">
-        <v>10.4</v>
+        <v>28.33</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>11.68</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D8" t="n">
-        <v>11.39</v>
+        <v>11.68</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,964 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>11.39</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>23</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>8.390000000000001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001838</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银国家安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.5132</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005094</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家臻选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>55.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>64.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2348</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004224</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9789</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002983</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7590</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008960</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2121</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006511</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博道卓远混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1680</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007074</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国寿安保新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>52.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1115</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007825</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博道志远混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006700</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>39.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011148</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007826</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博道志远混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.72</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008128</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>湘财长源股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006132</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008129</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>湘财长源股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008547</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博道安远6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>21.60</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003092</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华商丰利增强定期开放债券A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>20.37</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006701</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>39.60</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006512</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博道卓远混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003093</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华商丰利增强定期开放债券C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>20.37</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006133</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>万家智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001751</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华商信用增强债券A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001752</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华商信用增强债券C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -622,7 +1569,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -683,26 +1630,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>27.40</t>
+          <t>26.76</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.42</t>
+          <t>94.68</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.84</t>
+          <t>10.13</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.1482</t>
+          <t>2.7108</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -711,36 +1658,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004139</t>
+          <t>004698</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中邮军民融合灵活配置混合</t>
+          <t>博时军工主题股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11.73</t>
+          <t>32.57</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.46</t>
+          <t>91.42</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>6.52</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5560</t>
+          <t>2.1236</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -749,32 +1696,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011001</t>
+          <t>000547</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中邮兴荣价值一年持有期混合</t>
+          <t>建信健康民生混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.15</t>
+          <t>17.47</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>40.76</t>
+          <t>84.96</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1190</t>
+          <t>0.5992</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -787,36 +1734,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>014781</t>
+          <t>004139</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>建信兴衡优选一年持有期混合A</t>
+          <t>中邮军民融合灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>9.23</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>46.74</t>
+          <t>90.98</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>6.26</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0402</t>
+          <t>0.5778</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -825,36 +1772,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>014782</t>
+          <t>012130</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>建信兴衡优选一年持有期混合C</t>
+          <t>景顺长城先进智造混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>18.69</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>46.74</t>
+          <t>89.14</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0159</t>
+          <t>0.5738</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -863,36 +1810,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004840</t>
+          <t>012568</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>东兴品牌精选灵活配置混合A</t>
+          <t>天弘高端制造混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>6.15</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.84</t>
+          <t>90.96</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.28</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0005</t>
+          <t>0.3204</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -901,34 +1848,1250 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006442</t>
+          <t>007202</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>东兴品牌精选灵活配置混合C</t>
+          <t>天弘优质成长企业精选灵活配置混合型证券投资A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>5.91</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>89.84</t>
+          <t>90.29</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3091</t>
+        </is>
       </c>
       <c r="H8" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014849</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信健康民生混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2840</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011592</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时军工主题股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2601</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>165313</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信优势动力混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1649</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013618</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1197</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014987</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>54.61</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1082</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009234</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华优质企业混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.54</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1059</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002181</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003857</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014781</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>建信兴衡优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012569</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012131</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>景顺长城先进智造混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>160421</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安智增精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.78</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014773</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安品质领先混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>76.31</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003858</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003799</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华安新泰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>27.10</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014782</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>建信兴衡优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003800</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安新泰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>27.10</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>015133</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华安鼎安优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>36.35</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005251</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>银华多元动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009317</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>金信核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001732</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略价值灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>58.39</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014774</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华安品质领先混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>76.31</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014988</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华安产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>54.61</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>015460</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>天弘优质成长企业精选灵活配置混合型证券投资C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>015134</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华安鼎安优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>36.35</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009200</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华安金享混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>81.82</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003717</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001731</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>58.39</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001282</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华安新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>26.86</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>016924</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>58.39</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010484</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>016041</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华安新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>26.86</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1003,26 +3166,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>32.22</t>
+          <t>27.40</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.32</t>
+          <t>94.42</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>7.84</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.3146</t>
+          <t>2.1482</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1031,36 +3194,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000462</t>
+          <t>004139</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>农银主题轮动灵活配置混合</t>
+          <t>中邮军民融合灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.57</t>
+          <t>11.73</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.98</t>
+          <t>88.46</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2724</t>
+          <t>0.5560</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1069,36 +3232,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000039</t>
+          <t>011001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>农银高增长混合</t>
+          <t>中邮兴荣价值一年持有期混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.27</t>
+          <t>40.76</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1521</t>
+          <t>0.1190</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1107,36 +3270,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000259</t>
+          <t>014781</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>农银区间收益混合</t>
+          <t>建信兴衡优选一年持有期混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>67.87</t>
+          <t>46.74</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0576</t>
+          <t>0.0402</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1145,32 +3308,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>161233</t>
+          <t>014782</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
+          <t>建信兴衡优选一年持有期混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.47</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>27.72</t>
+          <t>46.74</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0520</t>
+          <t>0.0159</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1183,36 +3346,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005638</t>
+          <t>004840</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>农银汇理量化智慧动力混合</t>
+          <t>东兴品牌精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>86.53</t>
+          <t>89.84</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>5.28</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0141</t>
+          <t>0.0005</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1221,36 +3384,34 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>011618</t>
+          <t>006442</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）C</t>
+          <t>东兴品牌精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>27.72</t>
+          <t>89.84</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0070</t>
-        </is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1259,6 +3420,328 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001838</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银国家安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3146</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000462</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>农银主题轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2724</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000039</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>农银高增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1521</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000259</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>农银区间收益混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>67.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161233</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>27.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005638</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>农银汇理量化智慧动力混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011618</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>27.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2150,7 +4633,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5092,7 +7575,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5604,7 +8087,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6420,7 +8903,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6778,934 +9261,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H24"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001838</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国投瑞银国家安全灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>36.52</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.61</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>9.62</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.5132</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005094</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>万家臻选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>55.87</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>64.83</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.2348</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004224</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>南方军工改革灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>18.61</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.45</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.26</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.9789</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002983</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>长信国防军工量化灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>10.63</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.19</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.14</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.7590</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>008960</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>长信国防军工量化灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.19</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.14</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2121</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006511</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>博道卓远混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>85.50</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1680</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>007074</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国寿安保新蓝筹灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>5.36</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>52.18</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1115</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>007825</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>博道志远混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>83.72</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0944</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001050</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>汇添富成长多因子量化策略股票</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>6.98</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91.70</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0656</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>006700</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>红土创新稳健混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>39.60</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0476</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>011148</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>南方军工改革灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>92.45</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5.26</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0426</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>007826</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>博道志远混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>83.72</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0416</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>008128</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>湘财长源股票A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0411</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>006132</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>万家智造优势混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0355</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>008129</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>湘财长源股票C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0130</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>008547</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>博道安远6个月定期开放混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>21.60</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0066</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>003092</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>华商丰利增强定期开放债券A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>20.37</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0061</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>006701</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>红土创新稳健混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>39.60</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0056</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>006512</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>博道卓远混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>85.50</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0045</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>003093</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>华商丰利增强定期开放债券C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>20.37</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0038</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>006133</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>万家智造优势混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0032</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>001751</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>华商信用增强债券A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>20.42</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>001752</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>华商信用增强债券C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>20.42</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>